--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Fzd7.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt3</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt3</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H2">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I2">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J2">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N2">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O2">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P2">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q2">
-        <v>0.09355669238825003</v>
+        <v>0.01364692364</v>
       </c>
       <c r="R2">
-        <v>0.3742267695530001</v>
+        <v>0.08188154184</v>
       </c>
       <c r="S2">
-        <v>0.01898262872229869</v>
+        <v>0.002163577861529693</v>
       </c>
       <c r="T2">
-        <v>0.01175494572406551</v>
+        <v>0.001838027256944361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H3">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I3">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J3">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P3">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q3">
-        <v>0.4162417828583334</v>
+        <v>0.02197913627777778</v>
       </c>
       <c r="R3">
-        <v>2.497450697150001</v>
+        <v>0.1978122265</v>
       </c>
       <c r="S3">
-        <v>0.0844553502374541</v>
+        <v>0.003484563548576002</v>
       </c>
       <c r="T3">
-        <v>0.07844814904234174</v>
+        <v>0.004440369048915942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H4">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I4">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J4">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N4">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O4">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P4">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q4">
-        <v>0.7195559854936667</v>
+        <v>0.02669025048666666</v>
       </c>
       <c r="R4">
-        <v>4.317335912962001</v>
+        <v>0.24021225438</v>
       </c>
       <c r="S4">
-        <v>0.1459977236139388</v>
+        <v>0.004231461726830187</v>
       </c>
       <c r="T4">
-        <v>0.1356130920031353</v>
+        <v>0.005392139193778676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H5">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I5">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J5">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N5">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O5">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P5">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q5">
-        <v>0.828378961445</v>
+        <v>0.04889573854666666</v>
       </c>
       <c r="R5">
-        <v>3.31351584578</v>
+        <v>0.29337443128</v>
       </c>
       <c r="S5">
-        <v>0.1680778773283003</v>
+        <v>0.007751910997188817</v>
       </c>
       <c r="T5">
-        <v>0.1040818083898687</v>
+        <v>0.006585491541388767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H6">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I6">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J6">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N6">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O6">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P6">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q6">
-        <v>0.1279112172178334</v>
+        <v>0.03042716568888889</v>
       </c>
       <c r="R6">
-        <v>0.7674673033070001</v>
+        <v>0.2738444912</v>
       </c>
       <c r="S6">
-        <v>0.0259531529373347</v>
+        <v>0.004823910780933765</v>
       </c>
       <c r="T6">
-        <v>0.02410713831654693</v>
+        <v>0.006147095275430884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,19 +850,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H7">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I7">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J7">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N7">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O7">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P7">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q7">
-        <v>0.7449057718620001</v>
+        <v>0.03838780906333334</v>
       </c>
       <c r="R7">
-        <v>4.469434631172001</v>
+        <v>0.34549028157</v>
       </c>
       <c r="S7">
-        <v>0.1511411887208785</v>
+        <v>0.006085988024335198</v>
       </c>
       <c r="T7">
-        <v>0.1403907090063072</v>
+        <v>0.0077553565830001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H8">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I8">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J8">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N8">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O8">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P8">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q8">
-        <v>0.004940146271666668</v>
+        <v>0.161339786304</v>
       </c>
       <c r="R8">
-        <v>0.02964087763000001</v>
+        <v>0.645359145216</v>
       </c>
       <c r="S8">
-        <v>0.00100235440260898</v>
+        <v>0.02557874573344253</v>
       </c>
       <c r="T8">
-        <v>0.0009310582141691801</v>
+        <v>0.01448663120857181</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H9">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I9">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J9">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>9.20485</v>
       </c>
       <c r="O9">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P9">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q9">
-        <v>0.02197913627777778</v>
+        <v>0.2598467789333334</v>
       </c>
       <c r="R9">
-        <v>0.1978122265</v>
+        <v>1.5590806736</v>
       </c>
       <c r="S9">
-        <v>0.004459561074117892</v>
+        <v>0.04119600527712487</v>
       </c>
       <c r="T9">
-        <v>0.006213537286072571</v>
+        <v>0.03499729865189329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H10">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I10">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J10">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N10">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O10">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P10">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q10">
-        <v>0.03799527033555556</v>
+        <v>0.315543592352</v>
       </c>
       <c r="R10">
-        <v>0.3419574330200001</v>
+        <v>1.893261554112</v>
       </c>
       <c r="S10">
-        <v>0.007709230537887244</v>
+        <v>0.05002615598722125</v>
       </c>
       <c r="T10">
-        <v>0.01074132422405869</v>
+        <v>0.04249878864985841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H11">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I11">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J11">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N11">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O11">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P11">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q11">
-        <v>0.04374153396666667</v>
+        <v>0.578066399168</v>
       </c>
       <c r="R11">
-        <v>0.2624492038</v>
+        <v>2.312265596672</v>
       </c>
       <c r="S11">
-        <v>0.008875145944528208</v>
+        <v>0.09164641766355419</v>
       </c>
       <c r="T11">
-        <v>0.00824386814892536</v>
+        <v>0.05190433761350693</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H12">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I12">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J12">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N12">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O12">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P12">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q12">
-        <v>0.006754194774444445</v>
+        <v>0.3597230071466666</v>
       </c>
       <c r="R12">
-        <v>0.06078775297000001</v>
+        <v>2.15833804288</v>
       </c>
       <c r="S12">
-        <v>0.001370424375300716</v>
+        <v>0.05703034288725715</v>
       </c>
       <c r="T12">
-        <v>0.001909421759709396</v>
+        <v>0.04844906511732813</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H13">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I13">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J13">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N13">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O13">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P13">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q13">
-        <v>0.03933383468000001</v>
+        <v>0.4538371485280001</v>
       </c>
       <c r="R13">
-        <v>0.3540045121200001</v>
+        <v>2.723022891168001</v>
       </c>
       <c r="S13">
-        <v>0.007980824897658424</v>
+        <v>0.07195116153628189</v>
       </c>
       <c r="T13">
-        <v>0.01111973852382451</v>
+        <v>0.06112476857153212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H14">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I14">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J14">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N14">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O14">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P14">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q14">
-        <v>0.04410959826000001</v>
+        <v>0.29131641464</v>
       </c>
       <c r="R14">
-        <v>0.26465758956</v>
+        <v>1.74789848784</v>
       </c>
       <c r="S14">
-        <v>0.008949826094584043</v>
+        <v>0.04618518884123458</v>
       </c>
       <c r="T14">
-        <v>0.008313236395290007</v>
+        <v>0.03923576658216177</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H15">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I15">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J15">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.20485</v>
       </c>
       <c r="O15">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P15">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q15">
-        <v>0.196247402</v>
+        <v>0.4691814321111111</v>
       </c>
       <c r="R15">
-        <v>1.766226618</v>
+        <v>4.222632889</v>
       </c>
       <c r="S15">
-        <v>0.03981854718016478</v>
+        <v>0.07438383817002119</v>
       </c>
       <c r="T15">
-        <v>0.05547945716387179</v>
+        <v>0.09478710551417867</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H16">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I16">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J16">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N16">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O16">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P16">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q16">
-        <v>0.3392523253600001</v>
+        <v>0.5697480459866666</v>
       </c>
       <c r="R16">
-        <v>3.05327092824</v>
+        <v>5.12773241388</v>
       </c>
       <c r="S16">
-        <v>0.06883420919543064</v>
+        <v>0.09032762924923592</v>
       </c>
       <c r="T16">
-        <v>0.09590717971672315</v>
+        <v>0.1151042314450456</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H17">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I17">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J17">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N17">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O17">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P17">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q17">
-        <v>0.3905595876</v>
+        <v>1.043761335546667</v>
       </c>
       <c r="R17">
-        <v>2.3433575256</v>
+        <v>6.262568013279999</v>
       </c>
       <c r="S17">
-        <v>0.07924443945258597</v>
+        <v>0.1654775081828943</v>
       </c>
       <c r="T17">
-        <v>0.0736078836861702</v>
+        <v>0.1405783336294408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H18">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I18">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J18">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N18">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O18">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P18">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q18">
-        <v>0.06030688196</v>
+        <v>0.6495187523555555</v>
       </c>
       <c r="R18">
-        <v>0.54276193764</v>
+        <v>5.8456687712</v>
       </c>
       <c r="S18">
-        <v>0.01223625077397401</v>
+        <v>0.1029744453999793</v>
       </c>
       <c r="T18">
-        <v>0.01704885282703764</v>
+        <v>0.1312200319521249</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H19">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I19">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J19">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N19">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O19">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P19">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q19">
-        <v>0.35120410416</v>
+        <v>0.8194520023133334</v>
       </c>
       <c r="R19">
-        <v>3.16083693744</v>
+        <v>7.375068020820001</v>
       </c>
       <c r="S19">
-        <v>0.07125922202711486</v>
+        <v>0.1299155954529329</v>
       </c>
       <c r="T19">
-        <v>0.09928596686605147</v>
+        <v>0.1655510599760571</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H20">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I20">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J20">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N20">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O20">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P20">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q20">
-        <v>0.01473538278333334</v>
+        <v>0.011841516292</v>
       </c>
       <c r="R20">
-        <v>0.08841229670000002</v>
+        <v>0.071049097752</v>
       </c>
       <c r="S20">
-        <v>0.00298980536096955</v>
+        <v>0.001877349296600474</v>
       </c>
       <c r="T20">
-        <v>0.002777144324255209</v>
+        <v>0.001594867113087087</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H21">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I21">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J21">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.20485</v>
       </c>
       <c r="O21">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P21">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q21">
-        <v>0.06555898722222224</v>
+        <v>0.01907142643888889</v>
       </c>
       <c r="R21">
-        <v>0.5900308850000001</v>
+        <v>0.17164283795</v>
       </c>
       <c r="S21">
-        <v>0.01330190157519576</v>
+        <v>0.003023576383913296</v>
       </c>
       <c r="T21">
-        <v>0.01853363145822484</v>
+        <v>0.003852934465106355</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H22">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I22">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J22">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N22">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O22">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P22">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q22">
-        <v>0.1133316346444445</v>
+        <v>0.02315928807933334</v>
       </c>
       <c r="R22">
-        <v>1.0199847118</v>
+        <v>0.208433592714</v>
       </c>
       <c r="S22">
-        <v>0.02299495939872371</v>
+        <v>0.003671664347147627</v>
       </c>
       <c r="T22">
-        <v>0.03203903595915131</v>
+        <v>0.004678791044504001</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H23">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I23">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J23">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N23">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O23">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P23">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q23">
-        <v>0.1304714903333333</v>
+        <v>0.04242712129733334</v>
       </c>
       <c r="R23">
-        <v>0.782828942</v>
+        <v>0.254562727784</v>
       </c>
       <c r="S23">
-        <v>0.02647263169121723</v>
+        <v>0.006726378983926472</v>
       </c>
       <c r="T23">
-        <v>0.02458966721014963</v>
+        <v>0.00571426992891002</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H24">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I24">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J24">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N24">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O24">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P24">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q24">
-        <v>0.02014629525555556</v>
+        <v>0.02640183148444444</v>
       </c>
       <c r="R24">
-        <v>0.1813166573</v>
+        <v>0.23761648336</v>
       </c>
       <c r="S24">
-        <v>0.004087678104084501</v>
+        <v>0.004185735892604557</v>
       </c>
       <c r="T24">
-        <v>0.005695390172050827</v>
+        <v>0.005333870898136793</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H25">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I25">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J25">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N25">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O25">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P25">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q25">
-        <v>0.1173242812</v>
+        <v>0.03330932878566668</v>
       </c>
       <c r="R25">
-        <v>1.0559185308</v>
+        <v>0.299783959071</v>
       </c>
       <c r="S25">
-        <v>0.02380506635364844</v>
+        <v>0.00528084777523399</v>
       </c>
       <c r="T25">
-        <v>0.03316776358199865</v>
+        <v>0.006729368739097389</v>
       </c>
     </row>
   </sheetData>
